--- a/CougSat1/CougSat1-SystemRequirements.xlsx
+++ b/CougSat1/CougSat1-SystemRequirements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\CougsInSpace\CougSat1-Hardware\CougSat1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bradley\Documents\CougsInSpace\CougSat1-Hardware\CougSat1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86891668-415B-4838-945D-A1938E99C2B7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978F82D-8C43-4D91-8975-B4F526C97189}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CB9DAC32-F6C0-4444-9FE8-EF92C5E1C529}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
   <si>
     <t>CougSat-1 System Requirements</t>
   </si>
@@ -300,31 +300,298 @@
     <t>CubeSat 3.1.1: CubeSats which incorporate any deviation from the CDS will submit a DAR and adhere to the waiver process</t>
   </si>
   <si>
-    <t>CubeSat 3.1.10: Some launch vehicles hold requirements on magnetic field strength. Additionally, strong magnets can interfere with the separation between CubeSat spacecraft in the same P-POD. As a general guideline, it is advised to limit magnetic field outside the CubeSatstatic envelope to 0.5 Gauss above Earth’s magnetic field.</t>
-  </si>
-  <si>
-    <t>CubeSat 3.2.1: The CubeSat configuration and physical dimensions shall be per the appropriatesection of Appendix B.</t>
-  </si>
-  <si>
-    <t>CubeSat 3.3.1: The CubeSat power system shall be at a power off state to prevent CubeSat from activating any powered functions while integrated in the P-POD from the time of deliveryto the LV through on-orbit deployment. CubeSat powered function include the variety ofsubsystems such as Command and Data Handling (C&amp;DH), RF Communication, AttitudeDetermine and Control (ADC), deployable mechanism actuation. CubeSat power systemsinclude all battery assemblies, solar cells, and coin cell batteries</t>
-  </si>
-  <si>
-    <t>CubeSat 3.3.6.1: All diagnostics and battery charging within the P-POD will be done while thedeployment switch is depressed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CubeSat 3.4.4: All deployables such as booms, antennas, and solar panels shall wait to deploy aminimum of 30 minutes after the CubeSat's deployment switch(es) are activated from PPODejection. </t>
-  </si>
-  <si>
-    <t>CubeSat 3.4.5: No CubeSats shall generate or transmit any signal from the time of integration into the PPOD through 45 minutes after on-orbit deployment from the P-POD. However, theCubeSat can be powered on following deployment form the P-POD.</t>
-  </si>
-  <si>
-    <t>CubeSat 3.4.7: Cal Poly will conduct a minimum of one fit check in which developer hardware will be inspected and integrated into the P-POD or TestPOD. A final fit check will be conductedprior to launch. The CubeSat Acceptance Checklist (CAC) will be used to verifycompliance of the specification</t>
-  </si>
-  <si>
     <t>CubeSat 3.3.3: In the actuated state, the CubeSat deployment switch shall electrically disconnect the power system from the powered functions; this includes real time clocks</t>
   </si>
   <si>
     <t>CubeSat 3.2.16: The CubeSat rails and standoff, which contact the P-POD rails and adjacent CubeSat standoffs, shall be hard anodized aluminum to prevent any cold welding within the P-POD</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>The ADCS shall be able to hold the satellite pointing at a point of interest</t>
+  </si>
+  <si>
+    <t>The ADCS shall be able to detumble after P-POD ejection in under 60 minutes</t>
+  </si>
+  <si>
+    <t>The ADCS shall be able to slew the satellite to a different point of interest in under 5 minutes</t>
+  </si>
+  <si>
+    <t>The EPS shall keep the satellite powered up for the mission duration (Solar panels)</t>
+  </si>
+  <si>
+    <t>The EPS shall be able to power all devices and subsystems for a limited duration</t>
+  </si>
+  <si>
+    <t>The EPS shall regulate a 3.3V rail with minimal ripple and noise</t>
+  </si>
+  <si>
+    <t>The EPS shall be fault tolerant against overcurrent and short circuits</t>
+  </si>
+  <si>
+    <t>The IHU shall coordinate and interface with all subsystems</t>
+  </si>
+  <si>
+    <t>The IHU shall manage long term storage for the payload packet queue</t>
+  </si>
+  <si>
+    <t>The IHU shall encode and decode packets</t>
+  </si>
+  <si>
+    <t>The IFJR shall be able to reprogram all programmable processors on the satellite</t>
+  </si>
+  <si>
+    <t>The IFJR shall manage long term storage for processor binary files</t>
+  </si>
+  <si>
+    <t>The RCS shall transmit a beacon in all operating modes</t>
+  </si>
+  <si>
+    <t>The RCS shall receive messages in all operating messages</t>
+  </si>
+  <si>
+    <t>The Structure shall support and protect all subsystems during launch</t>
+  </si>
+  <si>
+    <t>The Structure shall support and protect all subsystems during orbit</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>The Payload shall support the germination experiment for at least one month</t>
+  </si>
+  <si>
+    <t>The Payload shall take a photo of the germination experiment at least once a day</t>
+  </si>
+  <si>
+    <t>The Payload shall take a photo of a point of interest at least once an hour</t>
+  </si>
+  <si>
+    <t>The Payload shall monitor and record health sensors of the germination plant at regular intervals</t>
+  </si>
+  <si>
+    <t>The Payload shall monitor and record all health sensors of the satellite bus at regular intervals</t>
+  </si>
+  <si>
+    <t>REQ-046</t>
+  </si>
+  <si>
+    <t>REQ-047</t>
+  </si>
+  <si>
+    <t>REQ-048</t>
+  </si>
+  <si>
+    <t>REQ-049</t>
+  </si>
+  <si>
+    <t>REQ-050</t>
+  </si>
+  <si>
+    <t>REQ-051</t>
+  </si>
+  <si>
+    <t>REQ-052</t>
+  </si>
+  <si>
+    <t>REQ-053</t>
+  </si>
+  <si>
+    <t>REQ-054</t>
+  </si>
+  <si>
+    <t>REQ-055</t>
+  </si>
+  <si>
+    <t>REQ-056</t>
+  </si>
+  <si>
+    <t>REQ-057</t>
+  </si>
+  <si>
+    <t>REQ-058</t>
+  </si>
+  <si>
+    <t>REQ-059</t>
+  </si>
+  <si>
+    <t>REQ-060</t>
+  </si>
+  <si>
+    <t>REQ-061</t>
+  </si>
+  <si>
+    <t>REQ-062</t>
+  </si>
+  <si>
+    <t>REQ-063</t>
+  </si>
+  <si>
+    <t>REQ-064</t>
+  </si>
+  <si>
+    <t>REQ-065</t>
+  </si>
+  <si>
+    <t>REQ-066</t>
+  </si>
+  <si>
+    <t>REQ-067</t>
+  </si>
+  <si>
+    <t>REQ-068</t>
+  </si>
+  <si>
+    <t>REQ-069</t>
+  </si>
+  <si>
+    <t>REQ-070</t>
+  </si>
+  <si>
+    <t>REQ-071</t>
+  </si>
+  <si>
+    <t>The RCS shall support full duplex communication</t>
+  </si>
+  <si>
+    <t>REQ-072</t>
+  </si>
+  <si>
+    <t>REQ-073</t>
+  </si>
+  <si>
+    <t>The Payload shall deploy a cougar head with the field of view of the ground camera</t>
+  </si>
+  <si>
+    <t>CubeSat 3.1.10: Some launch vehicles hold requirements on magnetic field strength. Additionally, strong magnets can interfere with the separation between CubeSat spacecraft in the same P-POD. As a general guideline, it is advised to limit magnetic field outside the CubeSat static envelope to 0.5 Gauss above Earth’s magnetic field.</t>
+  </si>
+  <si>
+    <t>CubeSat 3.2.1: The CubeSat configuration and physical dimensions shall be per the appropriate section of Appendix B.</t>
+  </si>
+  <si>
+    <t>CubeSat 3.3.1: The CubeSat power system shall be at a power off state to prevent CubeSat from activating any powered functions while integrated in the P-POD from the time of delivery to the LV through on-orbit deployment. CubeSat powered function include the variety of subsystems such as Command and Data Handling (C&amp;DH), RF Communication, Attitude Determine and Control (ADC), deployable mechanism actuation. CubeSat power systems include all battery assemblies, solar cells, and coin cell batteries</t>
+  </si>
+  <si>
+    <t>CubeSat 3.3.6.1: All diagnostics and battery charging within the P-POD will be done while the deployment switch is depressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CubeSat 3.4.4: All deployable such as booms, antennas, and solar panels shall wait to deploy a minimum of 30 minutes after the CubeSat's deployment switch(es) are activated from PPOD ejection. </t>
+  </si>
+  <si>
+    <t>CubeSat 3.4.5: No CubeSats shall generate or transmit any signal from the time of integration into the PPOD through 45 minutes after on-orbit deployment from the P-POD. However, the CubeSat can be powered on following deployment form the P-POD.</t>
+  </si>
+  <si>
+    <t>CubeSat 3.4.7: Cal Poly will conduct a minimum of one fit check in which developer hardware will be inspected and integrated into the P-POD or TestPOD. A final fit check will be conducted prior to launch. The CubeSat Acceptance Checklist (CAC) will be used to verify compliance of the specification</t>
+  </si>
+  <si>
+    <t>The EPS shall keep the satellite powered for at least three orbits without requiring charging</t>
+  </si>
+  <si>
+    <t>The Payload shall detect ionizing radiation</t>
+  </si>
+  <si>
+    <t>A tumbling satellite is difficult to use</t>
+  </si>
+  <si>
+    <t>Aiming the camera, solar panels, etc.</t>
+  </si>
+  <si>
+    <t>Changing interest may happen quickly</t>
+  </si>
+  <si>
+    <t>Without power, the satellite cannot function</t>
+  </si>
+  <si>
+    <t>Performing other activiites may take a while</t>
+  </si>
+  <si>
+    <t>Simultaneous use will occur</t>
+  </si>
+  <si>
+    <t>3.3V is the most often used voltage rail</t>
+  </si>
+  <si>
+    <t>These event have the possibility of killing the satellite</t>
+  </si>
+  <si>
+    <t>Housekeeping affects every subsystem</t>
+  </si>
+  <si>
+    <t>These packets may not be downloaded for a long time</t>
+  </si>
+  <si>
+    <t>To improve the software while in flight</t>
+  </si>
+  <si>
+    <t>Binary files are larger than the IFJR's internal storage</t>
+  </si>
+  <si>
+    <t>The beacon is used to identify and track the satellite</t>
+  </si>
+  <si>
+    <t>Commands from the ground may occur at any time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RCS shall transmit telemetry at regular intervals </t>
+  </si>
+  <si>
+    <t>Knowing the health of the satellite is the first mission objective</t>
+  </si>
+  <si>
+    <t>The RCS shall be able to download a day worth of data in two flyovers</t>
+  </si>
+  <si>
+    <t>Limited access needs to be accounted for</t>
+  </si>
+  <si>
+    <t>Mechanical failure is not tolerated</t>
+  </si>
+  <si>
+    <t>The Environmental Control shall keep all components within operating ranges</t>
+  </si>
+  <si>
+    <t>Too hot and too cold breaks things</t>
+  </si>
+  <si>
+    <t>The Payload shall take a picture of the launch vehicle after launch</t>
+  </si>
+  <si>
+    <t>Eventually a cool photo will be taken</t>
+  </si>
+  <si>
+    <t>The seeds could take up to a month to germinate</t>
+  </si>
+  <si>
+    <t>Visual confirmation of germination is concrete data</t>
+  </si>
+  <si>
+    <t>Numerical confirmation of germination is easier to aquire</t>
+  </si>
+  <si>
+    <t>Go Cougs!</t>
+  </si>
+  <si>
+    <t>As long as the launch provider consents, this might be cool</t>
+  </si>
+  <si>
+    <t>REQ-074</t>
+  </si>
+  <si>
+    <t>Flyovers are short so support simultaneous transmission</t>
+  </si>
+  <si>
+    <t>The encoded packets are delivered to/from the RCS</t>
+  </si>
+  <si>
+    <t>The Payload may have a visible light beacon for nighttime identification</t>
+  </si>
+  <si>
+    <t>REQ-075</t>
   </si>
 </sst>
 </file>
@@ -378,20 +645,20 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,69 +974,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F803DB-0F99-4F01-884A-5A7CE521278A}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="87" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -780,13 +1047,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -797,13 +1064,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -814,13 +1081,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -831,13 +1098,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
@@ -848,13 +1115,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
@@ -864,14 +1131,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
@@ -882,13 +1149,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
@@ -899,13 +1166,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
@@ -915,623 +1182,1127 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CougSat1/CougSat1-SystemRequirements.xlsx
+++ b/CougSat1/CougSat1-SystemRequirements.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bradley\Documents\CougsInSpace\CougSat1-Hardware\CougSat1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Documents\CiS\HardwareRepo\CougSat1-Hardware\CougSat1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978F82D-8C43-4D91-8975-B4F526C97189}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{CB9DAC32-F6C0-4444-9FE8-EF92C5E1C529}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7548"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="192">
   <si>
     <t>CougSat-1 System Requirements</t>
   </si>
@@ -592,12 +591,21 @@
   </si>
   <si>
     <t>REQ-075</t>
+  </si>
+  <si>
+    <t>REQ-076</t>
+  </si>
+  <si>
+    <t>The IHU shall operate as a RTOS.</t>
+  </si>
+  <si>
+    <t>Need to process mission critical events as they happen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,24 +981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F803DB-0F99-4F01-884A-5A7CE521278A}">
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1009,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1020,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1165,7 +1173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1216,7 +1224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1250,7 +1258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1267,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1301,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1386,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1488,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -1675,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
@@ -1760,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>77</v>
       </c>
@@ -1777,7 +1785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -1811,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>119</v>
       </c>
@@ -1845,7 +1853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -1862,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
@@ -1930,7 +1938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>125</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>126</v>
       </c>
@@ -1964,32 +1972,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -1998,15 +2006,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -2015,15 +2023,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
@@ -2032,15 +2040,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
@@ -2049,15 +2057,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
         <v>11</v>
@@ -2066,46 +2074,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>174</v>
@@ -2117,15 +2125,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
@@ -2134,66 +2142,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D72" t="s">
         <v>110</v>
@@ -2202,15 +2210,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
         <v>110</v>
@@ -2219,15 +2227,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
         <v>110</v>
@@ -2236,71 +2244,88 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D78" t="s">
         <v>111</v>
       </c>
       <c r="E78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" t="s">
         <v>9</v>
       </c>
     </row>
